--- a/Temp/b1/DriverDB/DriverDB.xlsx
+++ b/Temp/b1/DriverDB/DriverDB.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\eclipse\WorkSpace\FrameWork\DataBase\DriverDB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AG_FW1\DataBase\DriverDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -986,7 +986,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
